--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\RouterTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wqy03\Desktop\SFSGame\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC470956-B4CB-4A69-8FC6-28509B4A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6513EE94-5212-4C07-9D63-CB22D2DBE723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>ET1</t>
-  </si>
-  <si>
     <t>mongodb://127.0.0.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -71,6 +68,10 @@
   </si>
   <si>
     <t>路由区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +468,7 @@
   <dimension ref="C2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -481,7 +482,7 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
@@ -495,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
@@ -509,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
@@ -531,13 +532,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
@@ -547,7 +548,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
@@ -557,7 +558,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
